--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F01C9BF-397A-4D0F-A55B-B43E7C19481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F91DFC-BE56-49A9-A6A0-50426C83474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -90,9 +90,6 @@
     <t>##type</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -168,26 +165,64 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_Common1</t>
-  </si>
-  <si>
-    <t>Unit_Quick1</t>
-  </si>
-  <si>
-    <t>Unit_Tank1</t>
-  </si>
-  <si>
-    <t>Unit_Attack1</t>
-  </si>
-  <si>
     <t>TowerDefense_Monster1</t>
+  </si>
+  <si>
+    <t>string#ref=AIConfigId@AICfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster5</t>
+  </si>
+  <si>
+    <t>Monster6</t>
+  </si>
+  <si>
+    <t>Monster7</t>
+  </si>
+  <si>
+    <t>Monster8</t>
+  </si>
+  <si>
+    <t>Monster9</t>
+  </si>
+  <si>
+    <t>Unit_Monster1</t>
+  </si>
+  <si>
+    <t>Unit_Monster2</t>
+  </si>
+  <si>
+    <t>Unit_Monster3</t>
+  </si>
+  <si>
+    <t>Unit_Monster4</t>
+  </si>
+  <si>
+    <t>Unit_Monster5</t>
+  </si>
+  <si>
+    <t>Unit_Monster6</t>
+  </si>
+  <si>
+    <t>Unit_Monster7</t>
+  </si>
+  <si>
+    <t>Unit_Monster8</t>
+  </si>
+  <si>
+    <t>Unit_Monster9</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +269,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -255,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -289,8 +333,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -298,8 +368,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -308,10 +379,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,22 +671,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="9" width="23.33203125" customWidth="1"/>
+    <col min="4" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="9" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,22 +696,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1"/>
-      <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -641,8 +727,10 @@
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA1"/>
+      <c r="AB1"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -650,12 +738,12 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -671,33 +759,35 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA2"/>
+      <c r="AB2"/>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3"/>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -713,23 +803,25 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA3"/>
+      <c r="AB3"/>
+    </row>
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -745,33 +837,35 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA4"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -787,10 +881,12 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5"/>
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -802,363 +898,323 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f>"Text_Key_Name_"&amp;D6</f>
+        <v>Text_Key_Name_Monster1_1</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="str">
+        <f>"Text_Key_Desc_"&amp;D6</f>
+        <v>Text_Key_Desc_Monster1_1</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7" si="1">B7&amp;"_"&amp;C7</f>
+        <v>Monster2_1</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:D10" si="1">B7&amp;"_"&amp;C7</f>
-        <v>Monster1_2</v>
-      </c>
-      <c r="E7">
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:F14" si="2">"Text_Key_Name_"&amp;D7</f>
+        <v>Text_Key_Name_Monster2_1</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9" t="str">
+        <f t="shared" ref="H7:H14" si="3">"Text_Key_Desc_"&amp;D7</f>
+        <v>Text_Key_Desc_Monster2_1</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:D11" si="4">B8&amp;"_"&amp;C8</f>
+        <v>Monster3_1</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>Monster1_3</v>
-      </c>
-      <c r="E8">
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Monster3_1</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Monster3_1</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="D9" t="str">
+        <f t="shared" si="4"/>
+        <v>Monster4_1</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>Monster1_4</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Monster4_1</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Monster4_1</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>Monster2_1</v>
+        <f t="shared" si="4"/>
+        <v>Monster5_1</v>
       </c>
       <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Monster5_1</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Monster5_1</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="4"/>
+        <v>Monster6_1</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Monster6_1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Monster6_1</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:D14" si="5">B12&amp;"_"&amp;C12</f>
+        <v>Monster7_1</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Monster7_1</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Monster7_1</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D21" si="2">B11&amp;"_"&amp;C11</f>
-        <v>Monster2_2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="5"/>
+        <v>Monster8_1</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="2"/>
-        <v>Monster2_3</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>Monster2_4</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>Text_Key_Name_Monster8_1</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Monster8_1</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" t="str">
+        <f t="shared" si="5"/>
+        <v>Monster9_1</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="2"/>
-        <v>Monster3_1</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>Monster3_2</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>Text_Key_Name_Monster9_1</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Monster9_1</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="2"/>
-        <v>Monster3_3</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>Monster3_4</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>Monster4_1</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>Monster4_2</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="2"/>
-        <v>Monster4_3</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="6">
-        <v>4</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>Monster4_4</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{CB418708-232B-4A70-8D5E-15B059DF9F36}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F91DFC-BE56-49A9-A6A0-50426C83474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EF2778-8B39-4E58-B6A9-157151543462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -216,6 +216,12 @@
   <si>
     <t>text</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterType</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -674,7 +680,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>37</v>
@@ -895,8 +901,8 @@
         <f t="shared" ref="D6" si="0">B6&amp;"_"&amp;C6</f>
         <v>Monster1_1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>39</v>
       </c>
       <c r="F6" t="str">
         <f>"Text_Key_Name_"&amp;D6</f>
@@ -926,8 +932,8 @@
         <f t="shared" ref="D7" si="1">B7&amp;"_"&amp;C7</f>
         <v>Monster2_1</v>
       </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="F7:F14" si="2">"Text_Key_Name_"&amp;D7</f>
@@ -957,8 +963,8 @@
         <f t="shared" ref="D8:D11" si="4">B8&amp;"_"&amp;C8</f>
         <v>Monster3_1</v>
       </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
@@ -988,8 +994,8 @@
         <f t="shared" si="4"/>
         <v>Monster4_1</v>
       </c>
-      <c r="E9">
-        <v>4</v>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
@@ -1019,8 +1025,8 @@
         <f t="shared" si="4"/>
         <v>Monster5_1</v>
       </c>
-      <c r="E10">
-        <v>5</v>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
@@ -1050,8 +1056,8 @@
         <f t="shared" si="4"/>
         <v>Monster6_1</v>
       </c>
-      <c r="E11">
-        <v>6</v>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
@@ -1081,8 +1087,8 @@
         <f t="shared" ref="D12:D14" si="5">B12&amp;"_"&amp;C12</f>
         <v>Monster7_1</v>
       </c>
-      <c r="E12">
-        <v>7</v>
+      <c r="E12" t="s">
+        <v>39</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
@@ -1112,8 +1118,8 @@
         <f t="shared" si="5"/>
         <v>Monster8_1</v>
       </c>
-      <c r="E13">
-        <v>8</v>
+      <c r="E13" t="s">
+        <v>39</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
@@ -1143,8 +1149,8 @@
         <f t="shared" si="5"/>
         <v>Monster9_1</v>
       </c>
-      <c r="E14">
-        <v>9</v>
+      <c r="E14" t="s">
+        <v>39</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
@@ -5,33 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EF2778-8B39-4E58-B6A9-157151543462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8F519-CAFD-446A-9840-D760238A7FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -222,6 +211,14 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Monster10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -680,19 +677,20 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="27.375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="9" max="11" width="23.33203125" customWidth="1"/>
+    <col min="9" max="11" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -736,7 +734,7 @@
       <c r="AA1"/>
       <c r="AB1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,7 +766,7 @@
       <c r="AA2"/>
       <c r="AB2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -812,7 +810,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -846,7 +844,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -890,7 +888,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -921,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -952,7 +950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -983,7 +981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1169,18 +1167,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="6">B15&amp;"_"&amp;C15</f>
+        <v>Monster10_1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15" si="7">"Text_Key_Name_"&amp;D15</f>
+        <v>Text_Key_Name_Monster10_1</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9" t="str">
+        <f t="shared" ref="H15" si="8">"Text_Key_Desc_"&amp;D15</f>
+        <v>Text_Key_Desc_Monster10_1</v>
+      </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="E16" s="6"/>
@@ -1191,14 +1209,14 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8F519-CAFD-446A-9840-D760238A7FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD25D5-F262-435C-A18C-FFF6A0DC8FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
   <si>
     <t>##var</t>
   </si>
@@ -118,10 +129,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string#ref=UnitCfgCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -218,6 +225,236 @@
   </si>
   <si>
     <t>Unit_Monster10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Infinite_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_6_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_6_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_6_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_6_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_7_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_7_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_7_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_7_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_8_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_8_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_8_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_8_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_9_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_9_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_9_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_9_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_10_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_10_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_10_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_10_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_11_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_11_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_11_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_11_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_12_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_12_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_12_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_12_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_13_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_13_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_13_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_13_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_14_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_14_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_14_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_14_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_15_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_15_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_15_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_15_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_16_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_16_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_16_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_16_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_17_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_17_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_17_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_17_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_18_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_18_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_18_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_18_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_19_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_19_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_19_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_19_2</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_20_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_20_1</t>
+  </si>
+  <si>
+    <t>Monster_Infinite_20_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Infinite_20_2</t>
+  </si>
+  <si>
+    <t>string#ref=ItemCfgCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,14 +488,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -371,7 +600,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -379,10 +608,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +624,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -674,23 +903,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="9" max="11" width="23.375" customWidth="1"/>
+    <col min="9" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -700,21 +929,21 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -734,7 +963,7 @@
       <c r="AA1"/>
       <c r="AB1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -742,10 +971,10 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2"/>
@@ -766,31 +995,31 @@
       <c r="AA2"/>
       <c r="AB2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
+      <c r="K3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -810,7 +1039,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -818,12 +1047,12 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4"/>
@@ -844,7 +1073,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -854,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -865,10 +1094,10 @@
         <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -888,42 +1117,42 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6" si="0">B6&amp;"_"&amp;C6</f>
         <v>Monster1_1</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F6" t="str">
         <f>"Text_Key_Name_"&amp;D6</f>
         <v>Text_Key_Name_Monster1_1</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="str">
+      <c r="G6" s="6"/>
+      <c r="H6" s="8" t="str">
         <f>"Text_Key_Desc_"&amp;D6</f>
         <v>Text_Key_Desc_Monster1_1</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" t="str">
@@ -931,30 +1160,30 @@
         <v>Monster2_1</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="F7:F14" si="2">"Text_Key_Name_"&amp;D7</f>
         <v>Text_Key_Name_Monster2_1</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9" t="str">
+      <c r="G7" s="6"/>
+      <c r="H7" s="8" t="str">
         <f t="shared" ref="H7:H14" si="3">"Text_Key_Desc_"&amp;D7</f>
         <v>Text_Key_Desc_Monster2_1</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" t="str">
@@ -962,30 +1191,30 @@
         <v>Monster3_1</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Monster3_1</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="str">
+      <c r="G8" s="6"/>
+      <c r="H8" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Monster3_1</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" t="str">
@@ -993,30 +1222,30 @@
         <v>Monster4_1</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Monster4_1</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9" t="str">
+      <c r="G9" s="6"/>
+      <c r="H9" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Monster4_1</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" t="str">
@@ -1024,30 +1253,30 @@
         <v>Monster5_1</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Monster5_1</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9" t="str">
+      <c r="G10" s="6"/>
+      <c r="H10" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Monster5_1</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" t="str">
@@ -1055,30 +1284,30 @@
         <v>Monster6_1</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Monster6_1</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9" t="str">
+      <c r="G11" s="6"/>
+      <c r="H11" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Monster6_1</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" t="str">
@@ -1086,30 +1315,30 @@
         <v>Monster7_1</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Monster7_1</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9" t="str">
+      <c r="G12" s="6"/>
+      <c r="H12" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Monster7_1</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" t="str">
@@ -1117,30 +1346,30 @@
         <v>Monster8_1</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Monster8_1</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9" t="str">
+      <c r="G13" s="6"/>
+      <c r="H13" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Monster8_1</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" t="str">
@@ -1148,30 +1377,30 @@
         <v>Monster9_1</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Monster9_1</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9" t="str">
+      <c r="G14" s="6"/>
+      <c r="H14" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Monster9_1</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" t="str">
@@ -1179,49 +1408,561 @@
         <v>Monster10_1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ref="F15" si="7">"Text_Key_Name_"&amp;D15</f>
         <v>Text_Key_Name_Monster10_1</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9" t="str">
+      <c r="G15" s="6"/>
+      <c r="H15" s="8" t="str">
         <f t="shared" ref="H15" si="8">"Text_Key_Desc_"&amp;D15</f>
         <v>Text_Key_Desc_Monster10_1</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s">
+        <v>97</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s">
+        <v>113</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F94BC-0DC8-4738-94AD-C9C5BC16BB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512B524-A5FA-44BC-A34E-9A0024EE1655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="639">
   <si>
     <t>##var</t>
   </si>
@@ -1788,23 +1801,249 @@
     <t>Unit_Monster_Challenge10_5_4</t>
   </si>
   <si>
-    <t>Monster_Tutorial</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Monster_Tutorial</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>createActionIds</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_BianFu1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Monster_Dan1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Monster_Gui1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Monster_Niao1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Monster_Niao3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_MiFeng1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_BianFu1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Gui1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Dan1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Niao3</t>
+  </si>
+  <si>
+    <t>EffectCreate_MonsterShow</t>
+  </si>
+  <si>
+    <t>EffectCreate_MonsterShow;BuffAdd_WaveHpUp;BuffAdd_WaveSpeedUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Tutorial_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Tutorial_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Tutorial_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Tutorial_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Tutorial_1_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster_Tutorial_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Tutorial_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Tutorial_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Tutorial_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Tutorial_3_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1859,8 +2098,93 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1882,6 +2206,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1961,7 +2302,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1972,8 +2313,42 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2014,14 +2389,58 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="24">
+    <cellStyle name="Excel Built-in Bad" xfId="8" xr:uid="{1B44FB39-7DA8-4E92-BD4F-C7AF075CB085}"/>
+    <cellStyle name="Excel Built-in Good" xfId="9" xr:uid="{790F7932-76DC-49C5-B139-D035BD0DE52B}"/>
+    <cellStyle name="Excel Built-in Good 2" xfId="16" xr:uid="{F665DE03-8076-4673-A4CB-C3041F620D33}"/>
+    <cellStyle name="百分比 2" xfId="20" xr:uid="{6504EDCC-23F0-453B-830E-8878CAE7B062}"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="差 2" xfId="10" xr:uid="{EC2A3821-8127-42B5-B34F-83D593BA8EE6}"/>
+    <cellStyle name="差 3" xfId="15" xr:uid="{9D589E5A-1421-4FF9-B88F-914A2745A73C}"/>
+    <cellStyle name="差 4" xfId="19" xr:uid="{987EBE1F-C1A4-4DDF-B4E6-1AC02CC90E63}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="11" xr:uid="{645DC182-87C5-435D-B5FE-EE5B9EA17F31}"/>
+    <cellStyle name="常规 3" xfId="13" xr:uid="{84BFDF59-1178-44B8-BEAA-5EBAE182AE36}"/>
+    <cellStyle name="常规 4" xfId="17" xr:uid="{68CCD4FF-7671-490E-8561-AC0CB76E14A0}"/>
+    <cellStyle name="常规 5" xfId="6" xr:uid="{2926F1FA-A299-4D3A-9CCC-25BCF9D4B876}"/>
+    <cellStyle name="常规 6" xfId="22" xr:uid="{2F4B65FA-DC93-44B1-86D1-D34A0D5B442B}"/>
+    <cellStyle name="常规 7" xfId="4" xr:uid="{34DA6F6A-18E7-4630-9593-02E7D3550FCE}"/>
+    <cellStyle name="超链接 2" xfId="7" xr:uid="{11DD0E8B-AF8F-4F16-8970-C1D0A1F7BA8C}"/>
+    <cellStyle name="超链接 3" xfId="21" xr:uid="{60398DAE-C6EA-47FA-A00A-9D81FA0CD240}"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="好 2" xfId="12" xr:uid="{801FD957-1DF2-40B1-84D6-E6D40BCC1BE6}"/>
+    <cellStyle name="好 3" xfId="14" xr:uid="{117497C8-290F-48BA-84F1-53B0BE354100}"/>
+    <cellStyle name="好 4" xfId="18" xr:uid="{10CE1F4E-07E4-4E54-B8C2-CDDB17CA6288}"/>
+    <cellStyle name="好 5" xfId="23" xr:uid="{A9453015-2544-4A34-8B89-0265012852CD}"/>
+    <cellStyle name="链接单元格 2" xfId="5" xr:uid="{29443E05-B478-4B5D-9984-A25D6E815190}"/>
     <cellStyle name="输出" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2292,30 +2711,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z270"/>
+  <dimension ref="A1:Z302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="2" customWidth="1"/>
     <col min="5" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2340,7 +2759,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2359,7 +2778,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2808,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="5" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2852,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="5" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2465,7 +2884,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="3" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2509,3800 +2928,4764 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>563</v>
+    <row r="6" spans="1:26">
+      <c r="B6" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="2" t="s">
-        <v>564</v>
+      <c r="H6" s="6" t="s">
+        <v>634</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="15" customFormat="1">
+      <c r="B7" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="H7" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="15" customFormat="1">
+      <c r="B8" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="B10" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="16"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="16"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="16"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="B14" s="16"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="B15" s="16"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="B16" s="16"/>
+      <c r="G16" s="6"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="16"/>
+      <c r="G17" s="6"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="14" t="s">
         <v>309</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>320</v>
+      <c r="J18" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="2" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="2" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="2" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
       <c r="B56" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
+      <c r="I68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="9" t="s">
+      <c r="C69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
+      <c r="I69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="9" t="s">
+      <c r="C70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
+      <c r="I70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="C71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
+      <c r="I71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="9" t="s">
+      <c r="C72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+      <c r="I72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="C73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
+      <c r="I73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="9" t="s">
+      <c r="C74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
+      <c r="I74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="C75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
+      <c r="I75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="9" t="s">
+      <c r="C76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
+      <c r="I76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="9" t="s">
+      <c r="C77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
+      <c r="I77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="9" t="s">
+      <c r="C78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
+      <c r="I78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="9" t="s">
+      <c r="C79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
+      <c r="I79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="9" t="s">
+      <c r="C80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
+      <c r="I80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="9" t="s">
+      <c r="C81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
+      <c r="I81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="9" t="s">
+      <c r="C82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
+      <c r="I82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="9" t="s">
+      <c r="C83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
+      <c r="I83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="9" t="s">
+      <c r="C84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
+      <c r="I84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="9" t="s">
+      <c r="C85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+      <c r="I85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="9" t="s">
+      <c r="C86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
+      <c r="I86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="9" t="s">
+      <c r="C87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+      <c r="I87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="9" t="s">
+      <c r="C88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+      <c r="I88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="9" t="s">
+      <c r="C89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+      <c r="I89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="9" t="s">
+      <c r="C90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
+      <c r="I90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="9" t="s">
+      <c r="C91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
+      <c r="I91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" s="9" t="s">
+      <c r="C92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
+      <c r="I92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="9" t="s">
+      <c r="C93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
+      <c r="I93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" s="9" t="s">
+      <c r="C94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
+      <c r="I94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H85" s="9" t="s">
+      <c r="C95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
+      <c r="I95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" s="9" t="s">
+      <c r="C96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="9" t="s">
+      <c r="I96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H87" s="9" t="s">
+      <c r="C97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="9" t="s">
+      <c r="I97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="9" t="s">
+      <c r="C98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
+      <c r="I98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H89" s="9" t="s">
+      <c r="C99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
+      <c r="I99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" s="9" t="s">
+      <c r="C100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
+      <c r="I100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="9" t="s">
+      <c r="C101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
+      <c r="I101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" s="9" t="s">
+      <c r="C102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
+      <c r="I102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H93" s="9" t="s">
+      <c r="C103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
+      <c r="I103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H94" s="9" t="s">
+      <c r="C104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="I94" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
+      <c r="I104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H95" s="9" t="s">
+      <c r="C105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
+      <c r="I105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" s="9" t="s">
+      <c r="C106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="9" t="s">
+      <c r="I106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" s="9" t="s">
+      <c r="C107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="9" t="s">
+      <c r="I107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H98" s="9" t="s">
+      <c r="C108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="9" t="s">
+      <c r="I108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" s="9" t="s">
+      <c r="C109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
+      <c r="I109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H100" s="9" t="s">
+      <c r="C110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
+      <c r="I110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H101" s="9" t="s">
+      <c r="C111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
+      <c r="I111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H102" s="9" t="s">
+      <c r="C112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
+      <c r="I112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H103" s="9" t="s">
+      <c r="C113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="9" t="s">
+      <c r="I113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" s="9" t="s">
+      <c r="C114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
+      <c r="I114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H105" s="9" t="s">
+      <c r="C115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
+      <c r="I115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H106" s="9" t="s">
+      <c r="C116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="9" t="s">
+      <c r="I116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" s="9" t="s">
+      <c r="C117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
+      <c r="I117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H108" s="9" t="s">
+      <c r="C118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
+      <c r="I118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" s="9" t="s">
+      <c r="C119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="I109" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="9" t="s">
+      <c r="I119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" s="9" t="s">
+      <c r="C120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="I110" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="9" t="s">
+      <c r="I120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H111" s="9" t="s">
+      <c r="C121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="I111" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
+      <c r="I121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H112" s="9" t="s">
+      <c r="C122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
+      <c r="I122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H113" s="9" t="s">
+      <c r="C123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
+      <c r="I123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H114" s="9" t="s">
+      <c r="C124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="I114" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="9" t="s">
+      <c r="I124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H115" s="9" t="s">
+      <c r="C125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="I115" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="9" t="s">
+      <c r="I125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H116" s="9" t="s">
+      <c r="C126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="9" t="s">
+      <c r="I126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H117" s="9" t="s">
+      <c r="C127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H127" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="9" t="s">
+      <c r="I127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H118" s="9" t="s">
+      <c r="C128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="9" t="s">
+      <c r="I128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H119" s="9" t="s">
+      <c r="C129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="I119" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="9" t="s">
+      <c r="I129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" s="9" t="s">
+      <c r="C130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="I120" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="9" t="s">
+      <c r="I130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H121" s="9" t="s">
+      <c r="C131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="9" t="s">
+      <c r="I131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" s="9" t="s">
+      <c r="C132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="9" t="s">
+      <c r="I132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" s="9" t="s">
+      <c r="C133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="I123" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="9" t="s">
+      <c r="I133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H124" s="9" t="s">
+      <c r="C134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="I124" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="9" t="s">
+      <c r="I134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H125" s="9" t="s">
+      <c r="C135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="9" t="s">
+      <c r="I135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" s="9" t="s">
+      <c r="C136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="9" t="s">
+      <c r="I136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H127" s="9" t="s">
+      <c r="C137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="I127" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="9" t="s">
+      <c r="I137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H128" s="9" t="s">
+      <c r="C138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="I128" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="9" t="s">
+      <c r="I138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H129" s="9" t="s">
+      <c r="C139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H139" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="I129" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="9" t="s">
+      <c r="I139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H130" s="9" t="s">
+      <c r="C140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="9" t="s">
+      <c r="I140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H131" s="9" t="s">
+      <c r="C141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H141" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="9" t="s">
+      <c r="I141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H132" s="9" t="s">
+      <c r="C142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="I132" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
+      <c r="I142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H133" s="9" t="s">
+      <c r="C143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H143" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="I133" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="2" t="s">
+      <c r="I143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="2" t="s">
+      <c r="I145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H136" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I136" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="2" t="s">
+      <c r="I146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H137" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H147" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I137" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
+      <c r="I147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" s="2" t="s">
+      <c r="C148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="2" t="s">
+      <c r="I148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H139" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I139" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="2" t="s">
+      <c r="I149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I140" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
+      <c r="I150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H141" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I141" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="2" t="s">
+      <c r="I151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H142" s="2" t="s">
+      <c r="C152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I142" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="2" t="s">
+      <c r="I152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H143" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I143" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="2" t="s">
+      <c r="I153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H144" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I144" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="2" t="s">
+      <c r="I154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H145" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I145" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="2" t="s">
+      <c r="I155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H146" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I146" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
+      <c r="I156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H147" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I147" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="2" t="s">
+      <c r="I157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H148" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I148" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="2" t="s">
+      <c r="I158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H149" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I149" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="2" t="s">
+      <c r="I159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H150" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I150" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="2" t="s">
+      <c r="I160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H151" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I151" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="2" t="s">
+      <c r="I161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H152" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I152" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="2" t="s">
+      <c r="I162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H153" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H163" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I153" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="2" t="s">
+      <c r="I163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H154" s="2" t="s">
+      <c r="C164" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H164" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I154" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
+      <c r="I164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H155" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I155" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="2" t="s">
+      <c r="I165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H156" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I156" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="2" t="s">
+      <c r="I166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="B167" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H157" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H167" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I157" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="2" t="s">
+      <c r="I167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H158" s="2" t="s">
+      <c r="C168" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I158" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
+      <c r="I168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H159" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I159" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
+      <c r="I169" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H160" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I160" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="2" t="s">
+      <c r="I170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H161" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H171" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I161" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="2" t="s">
+      <c r="I171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H162" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H172" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I162" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="2" t="s">
+      <c r="I172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H163" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I163" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="2" t="s">
+      <c r="I173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H164" s="2" t="s">
+      <c r="C174" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I164" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="2" t="s">
+      <c r="I174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H165" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I165" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B166" s="2" t="s">
+      <c r="I175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H166" s="2" t="s">
+      <c r="C176" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I166" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
+      <c r="I176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H167" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I167" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="2" t="s">
+      <c r="I177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H168" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I168" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
+      <c r="I178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H169" s="2" t="s">
+      <c r="C179" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I169" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="2" t="s">
+      <c r="I179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H170" s="2" t="s">
+      <c r="C180" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I170" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="2" t="s">
+      <c r="I180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="B181" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H171" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H181" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I171" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="2" t="s">
+      <c r="I181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10">
+      <c r="B182" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H172" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I172" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="2" t="s">
+      <c r="I182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10">
+      <c r="B183" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H173" s="2" t="s">
+      <c r="C183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="I173" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="2" t="s">
+      <c r="I183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="B184" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H174" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I174" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="2" t="s">
+      <c r="I184" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="B185" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H175" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H185" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I175" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="2" t="s">
+      <c r="I185" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="B186" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H176" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="I176" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="2" t="s">
+      <c r="I186" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="B188" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10">
+      <c r="B189" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10">
+      <c r="B190" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="B191" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10">
+      <c r="B192" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9">
+      <c r="B193" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9">
+      <c r="B194" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9">
+      <c r="B195" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9">
+      <c r="B196" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9">
+      <c r="B197" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9">
+      <c r="B198" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9">
+      <c r="B199" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9">
+      <c r="B200" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9">
+      <c r="B201" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9">
+      <c r="B202" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9">
+      <c r="B203" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9">
+      <c r="B204" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9">
+      <c r="B205" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9">
+      <c r="B206" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9">
+      <c r="B207" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9">
+      <c r="B208" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9">
+      <c r="B210" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C210" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E178" s="7"/>
-      <c r="F178" s="8" t="s">
+      <c r="E210" s="7"/>
+      <c r="F210" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6" t="s">
+      <c r="G210" s="6"/>
+      <c r="H210" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I178" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="2" t="s">
+      <c r="I210" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9">
+      <c r="B211" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="C211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E179" s="7"/>
-      <c r="F179" s="8" t="s">
+      <c r="E211" s="7"/>
+      <c r="F211" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6" t="s">
+      <c r="G211" s="6"/>
+      <c r="H211" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I179" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="2" t="s">
+      <c r="I211" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9">
+      <c r="B212" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="C212" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E180" s="7"/>
-      <c r="F180" s="8" t="s">
+      <c r="E212" s="7"/>
+      <c r="F212" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6" t="s">
+      <c r="G212" s="6"/>
+      <c r="H212" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I180" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="2" t="s">
+      <c r="I212" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="B213" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="C213" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E181" s="7"/>
-      <c r="F181" s="8" t="s">
+      <c r="E213" s="7"/>
+      <c r="F213" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6" t="s">
+      <c r="G213" s="6"/>
+      <c r="H213" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I181" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="2" t="s">
+      <c r="I213" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9">
+      <c r="B214" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="C214" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E182" s="7"/>
-      <c r="F182" s="8" t="s">
+      <c r="E214" s="7"/>
+      <c r="F214" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6" t="s">
+      <c r="G214" s="6"/>
+      <c r="H214" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I182" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="2" t="s">
+      <c r="I214" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
+      <c r="B215" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="C215" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E183" s="7"/>
-      <c r="F183" s="8" t="s">
+      <c r="E215" s="7"/>
+      <c r="F215" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6" t="s">
+      <c r="G215" s="6"/>
+      <c r="H215" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I183" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="2" t="s">
+      <c r="I215" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="B216" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E184" s="7"/>
-      <c r="F184" s="8" t="s">
+      <c r="E216" s="7"/>
+      <c r="F216" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6" t="s">
+      <c r="G216" s="6"/>
+      <c r="H216" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I184" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="2" t="s">
+      <c r="I216" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9">
+      <c r="B217" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="C217" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E185" s="7"/>
-      <c r="F185" s="8" t="s">
+      <c r="E217" s="7"/>
+      <c r="F217" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6" t="s">
+      <c r="G217" s="6"/>
+      <c r="H217" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I185" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186" s="2" t="s">
+      <c r="I217" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9">
+      <c r="B218" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="C218" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E186" s="7"/>
-      <c r="F186" s="8" t="s">
+      <c r="E218" s="7"/>
+      <c r="F218" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6" t="s">
+      <c r="G218" s="6"/>
+      <c r="H218" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I186" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="2" t="s">
+      <c r="I218" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9">
+      <c r="B219" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="C219" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E187" s="7"/>
-      <c r="F187" s="8" t="s">
+      <c r="E219" s="7"/>
+      <c r="F219" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6" t="s">
+      <c r="G219" s="6"/>
+      <c r="H219" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I187" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="2" t="s">
+      <c r="I219" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9">
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="B221" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6" t="s">
+      <c r="C221" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I189" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="2" t="s">
+      <c r="I221" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9">
+      <c r="B222" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="2" t="s">
+      <c r="C222" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I190" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="2" t="s">
+      <c r="I222" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9">
+      <c r="B223" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H191" s="2" t="s">
+      <c r="C223" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I191" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B192" s="2" t="s">
+      <c r="I223" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9">
+      <c r="B224" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H192" s="2" t="s">
+      <c r="C224" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H224" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I192" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="2" t="s">
+      <c r="I224" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9">
+      <c r="B225" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H193" s="2" t="s">
+      <c r="C225" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H225" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I193" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B194" s="2" t="s">
+      <c r="I225" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9">
+      <c r="B226" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H194" s="2" t="s">
+      <c r="C226" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H226" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I194" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="2" t="s">
+      <c r="I226" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9">
+      <c r="B227" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H195" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H227" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I195" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196" s="2" t="s">
+      <c r="I227" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9">
+      <c r="B228" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H196" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I196" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="2" t="s">
+      <c r="I228" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9">
+      <c r="B229" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H197" s="2" t="s">
+      <c r="C229" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H229" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I197" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B198" s="2" t="s">
+      <c r="I229" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9">
+      <c r="B230" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H198" s="2" t="s">
+      <c r="C230" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H230" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I198" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" s="2" t="s">
+      <c r="I230" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9">
+      <c r="B231" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H199" s="2" t="s">
+      <c r="C231" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H231" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I199" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="2" t="s">
+      <c r="I231" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9">
+      <c r="B232" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H200" s="2" t="s">
+      <c r="C232" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H232" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I200" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="2" t="s">
+      <c r="I232" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9">
+      <c r="B233" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H201" s="2" t="s">
+      <c r="C233" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H233" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I201" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="2" t="s">
+      <c r="I233" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9">
+      <c r="B234" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H202" s="2" t="s">
+      <c r="C234" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I202" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" s="2" t="s">
+      <c r="I234" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9">
+      <c r="B235" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H203" s="2" t="s">
+      <c r="C235" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H235" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I203" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B204" s="2" t="s">
+      <c r="I235" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9">
+      <c r="B236" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H204" s="2" t="s">
+      <c r="C236" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H236" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I204" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="2" t="s">
+      <c r="I236" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9">
+      <c r="B237" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H205" s="2" t="s">
+      <c r="C237" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H237" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I205" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B206" s="2" t="s">
+      <c r="I237" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9">
+      <c r="B238" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H206" s="2" t="s">
+      <c r="C238" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H238" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I206" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="2" t="s">
+      <c r="I238" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9">
+      <c r="B239" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H207" s="2" t="s">
+      <c r="C239" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H239" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I207" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B208" s="2" t="s">
+      <c r="I239" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9">
+      <c r="B240" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H208" s="2" t="s">
+      <c r="C240" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H240" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I208" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B209" s="2" t="s">
+      <c r="I240" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9">
+      <c r="B241" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H209" s="2" t="s">
+      <c r="C241" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H241" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I209" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B210" s="2" t="s">
+      <c r="I241" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9">
+      <c r="B242" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H210" s="2" t="s">
+      <c r="C242" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H242" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I210" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="2" t="s">
+      <c r="I242" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9">
+      <c r="B243" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H211" s="2" t="s">
+      <c r="C243" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H243" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I211" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="2" t="s">
+      <c r="I243" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9">
+      <c r="B244" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H212" s="2" t="s">
+      <c r="C244" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H244" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I212" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="2" t="s">
+      <c r="I244" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9">
+      <c r="B245" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H213" s="2" t="s">
+      <c r="C245" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H245" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I213" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="2" t="s">
+      <c r="I245" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="B246" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H214" s="2" t="s">
+      <c r="C246" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H246" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I214" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B215" s="2" t="s">
+      <c r="I246" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9">
+      <c r="B247" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H215" s="2" t="s">
+      <c r="C247" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H247" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I215" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" s="2" t="s">
+      <c r="I247" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9">
+      <c r="B248" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H216" s="2" t="s">
+      <c r="C248" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H248" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I216" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" s="2" t="s">
+      <c r="I248" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9">
+      <c r="B249" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H217" s="2" t="s">
+      <c r="C249" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H249" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I217" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="2" t="s">
+      <c r="I249" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9">
+      <c r="B250" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H218" s="2" t="s">
+      <c r="C250" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H250" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I218" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B219" s="2" t="s">
+      <c r="I250" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9">
+      <c r="B251" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H219" s="2" t="s">
+      <c r="C251" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H251" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I219" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="2" t="s">
+      <c r="I251" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9">
+      <c r="B252" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H220" s="2" t="s">
+      <c r="C252" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H252" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I220" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" s="2" t="s">
+      <c r="I252" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9">
+      <c r="B253" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H221" s="2" t="s">
+      <c r="C253" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H253" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I221" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B222" s="2" t="s">
+      <c r="I253" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9">
+      <c r="B254" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H222" s="2" t="s">
+      <c r="C254" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H254" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I222" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B223" s="2" t="s">
+      <c r="I254" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9">
+      <c r="B255" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H223" s="2" t="s">
+      <c r="C255" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H255" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I223" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B224" s="2" t="s">
+      <c r="I255" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9">
+      <c r="B256" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H224" s="2" t="s">
+      <c r="C256" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H256" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I224" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" s="2" t="s">
+      <c r="I256" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9">
+      <c r="B257" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H225" s="2" t="s">
+      <c r="C257" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I225" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="2" t="s">
+      <c r="I257" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9">
+      <c r="B259" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H227" s="2" t="s">
+      <c r="C259" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H259" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I227" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="2" t="s">
+      <c r="I259" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9">
+      <c r="B260" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H228" s="2" t="s">
+      <c r="C260" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H260" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I228" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="2" t="s">
+      <c r="I260" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9">
+      <c r="B261" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H229" s="2" t="s">
+      <c r="C261" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H261" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I229" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="2" t="s">
+      <c r="I261" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9">
+      <c r="B262" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H230" s="2" t="s">
+      <c r="C262" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H262" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I230" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B231" s="2" t="s">
+      <c r="I262" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9">
+      <c r="B263" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H231" s="2" t="s">
+      <c r="C263" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H263" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I231" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B232" s="2" t="s">
+      <c r="I263" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9">
+      <c r="B264" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H232" s="2" t="s">
+      <c r="C264" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H264" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I232" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B233" s="2" t="s">
+      <c r="I264" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9">
+      <c r="B265" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H233" s="2" t="s">
+      <c r="C265" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H265" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I233" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="2" t="s">
+      <c r="I265" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9">
+      <c r="B266" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H234" s="2" t="s">
+      <c r="C266" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H266" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I234" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B235" s="2" t="s">
+      <c r="I266" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9">
+      <c r="B267" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H235" s="2" t="s">
+      <c r="C267" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H267" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I235" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B236" s="2" t="s">
+      <c r="I267" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9">
+      <c r="B268" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H236" s="2" t="s">
+      <c r="C268" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H268" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I236" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B237" s="2" t="s">
+      <c r="I268" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9">
+      <c r="B269" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H237" s="2" t="s">
+      <c r="C269" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H269" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I237" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B238" s="2" t="s">
+      <c r="I269" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9">
+      <c r="B270" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H238" s="2" t="s">
+      <c r="C270" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H270" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I238" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B239" s="2" t="s">
+      <c r="I270" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9">
+      <c r="B271" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H239" s="2" t="s">
+      <c r="C271" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H271" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I239" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="2" t="s">
+      <c r="I271" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9">
+      <c r="B272" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H240" s="2" t="s">
+      <c r="C272" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H272" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I240" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B241" s="2" t="s">
+      <c r="I272" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9">
+      <c r="B273" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H241" s="2" t="s">
+      <c r="C273" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H273" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I241" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B242" s="2" t="s">
+      <c r="I273" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9">
+      <c r="B274" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H242" s="2" t="s">
+      <c r="C274" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H274" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I242" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B243" s="2" t="s">
+      <c r="I274" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9">
+      <c r="B275" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H243" s="2" t="s">
+      <c r="C275" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H275" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I243" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B244" s="2" t="s">
+      <c r="I275" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9">
+      <c r="B276" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H244" s="2" t="s">
+      <c r="C276" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H276" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I244" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B245" s="2" t="s">
+      <c r="I276" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9">
+      <c r="B277" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H245" s="2" t="s">
+      <c r="C277" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H277" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I245" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B246" s="2" t="s">
+      <c r="I277" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9">
+      <c r="B278" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H246" s="2" t="s">
+      <c r="C278" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H278" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I246" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B247" s="2" t="s">
+      <c r="I278" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9">
+      <c r="B279" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H247" s="2" t="s">
+      <c r="C279" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H279" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I247" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B248" s="2" t="s">
+      <c r="I279" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9">
+      <c r="B280" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H248" s="2" t="s">
+      <c r="C280" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H280" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I248" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B249" s="2" t="s">
+      <c r="I280" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9">
+      <c r="B281" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H249" s="2" t="s">
+      <c r="C281" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H281" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I249" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B250" s="2" t="s">
+      <c r="I281" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9">
+      <c r="B282" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H250" s="2" t="s">
+      <c r="C282" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H282" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I250" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B251" s="2" t="s">
+      <c r="I282" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9">
+      <c r="B283" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H251" s="2" t="s">
+      <c r="C283" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H283" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I251" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B252" s="2" t="s">
+      <c r="I283" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9">
+      <c r="B284" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H252" s="2" t="s">
+      <c r="C284" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H284" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I252" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B253" s="2" t="s">
+      <c r="I284" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9">
+      <c r="B285" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H253" s="2" t="s">
+      <c r="C285" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H285" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I253" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B254" s="2" t="s">
+      <c r="I285" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9">
+      <c r="B286" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H254" s="2" t="s">
+      <c r="C286" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H286" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I254" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B255" s="2" t="s">
+      <c r="I286" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9">
+      <c r="B287" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H255" s="2" t="s">
+      <c r="C287" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H287" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I255" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B256" s="2" t="s">
+      <c r="I287" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9">
+      <c r="B288" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H256" s="2" t="s">
+      <c r="C288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H288" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I256" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B257" s="2" t="s">
+      <c r="I288" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9">
+      <c r="B289" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H257" s="2" t="s">
+      <c r="C289" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H289" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I257" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B258" s="2" t="s">
+      <c r="I289" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9">
+      <c r="B290" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H258" s="2" t="s">
+      <c r="C290" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H290" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I258" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B259" s="2" t="s">
+      <c r="I290" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9">
+      <c r="B291" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H259" s="2" t="s">
+      <c r="C291" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H291" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I259" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B260" s="2" t="s">
+      <c r="I291" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9">
+      <c r="B292" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H260" s="2" t="s">
+      <c r="C292" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H292" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I260" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B261" s="2" t="s">
+      <c r="I292" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9">
+      <c r="B293" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H261" s="2" t="s">
+      <c r="C293" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H293" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I261" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B262" s="2" t="s">
+      <c r="I293" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9">
+      <c r="B294" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H262" s="2" t="s">
+      <c r="C294" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H294" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I262" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B263" s="2" t="s">
+      <c r="I294" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9">
+      <c r="B295" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H263" s="2" t="s">
+      <c r="C295" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H295" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I263" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B264" s="2" t="s">
+      <c r="I295" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9">
+      <c r="B296" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H264" s="2" t="s">
+      <c r="C296" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H296" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I264" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B265" s="2" t="s">
+      <c r="I296" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9">
+      <c r="B297" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H265" s="2" t="s">
+      <c r="C297" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H297" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I265" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B266" s="2" t="s">
+      <c r="I297" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9">
+      <c r="B298" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H266" s="2" t="s">
+      <c r="C298" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H298" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I266" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B267" s="2" t="s">
+      <c r="I298" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9">
+      <c r="B299" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H267" s="2" t="s">
+      <c r="C299" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H299" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I267" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B268" s="2" t="s">
+      <c r="I299" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9">
+      <c r="B300" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H268" s="2" t="s">
+      <c r="C300" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H300" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I268" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B269" s="2" t="s">
+      <c r="I300" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9">
+      <c r="B301" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H269" s="2" t="s">
+      <c r="C301" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H301" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I269" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B270" s="2" t="s">
+      <c r="I301" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9">
+      <c r="B302" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H270" s="2" t="s">
+      <c r="C302" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H302" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I270" s="2" t="s">
+      <c r="I302" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B272:B312">
-    <sortCondition ref="B272:B312"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B304:B344">
+    <sortCondition ref="B304:B344"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="D1:E1"/>
@@ -6315,6 +7698,9 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J145:J186">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085217CE-2E77-4FD9-9AF0-4CC9603913CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E515F88D-39F9-4C26-B022-0D18EF867269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="680">
   <si>
     <t>##var</t>
   </si>
@@ -1878,6 +1867,264 @@
   </si>
   <si>
     <t>Unit_Monster_Tutorial_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_6_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_6_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_7_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_7_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_8_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_8_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_9_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_9_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_10_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_10_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_11_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_11_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_12_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_13_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_13_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_14_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_14_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_15_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_15_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_15_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_16_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_16_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_17_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_17_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_18_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_18_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_18_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_19_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_19_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_19_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_20_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_20_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_20_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_6_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_6_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_7_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_7_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_8_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_8_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_9_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_9_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_10_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_10_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_11_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_11_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_12_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_13_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_13_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_14_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_14_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_16_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_16_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_17_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_17_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_3</t>
+  </si>
+  <si>
+    <t>EffectCreate_MonsterShow;BuffAdd_WaveHpUp;BuffAdd_WaveSpeedUp</t>
+  </si>
+  <si>
+    <t>EffectCreate_BossEffect;EffectCreate_MonsterShow;BuffAdd_WaveHpUp;BuffAdd_WaveSpeedUp</t>
   </si>
 </sst>
 </file>
@@ -1943,6 +2190,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2176,7 +2424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2208,6 +2456,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Excel Built-in Bad" xfId="8" xr:uid="{1B44FB39-7DA8-4E92-BD4F-C7AF075CB085}"/>
@@ -2517,29 +2766,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X302"/>
+  <dimension ref="A1:X345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E144" sqref="E144"/>
+      <selection pane="bottomRight" activeCell="N332" sqref="N332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2826,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2854,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2643,7 +2892,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2671,7 +2920,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2713,7 +2962,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>588</v>
       </c>
@@ -2731,7 +2980,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>584</v>
       </c>
@@ -2749,7 +2998,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>585</v>
       </c>
@@ -2767,7 +3016,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>586</v>
       </c>
@@ -2785,7 +3034,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>587</v>
       </c>
@@ -2803,30 +3052,30 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E16" s="6"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E17" s="6"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>285</v>
       </c>
@@ -2845,7 +3094,7 @@
       </c>
       <c r="K18"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>286</v>
       </c>
@@ -2863,7 +3112,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>287</v>
       </c>
@@ -2881,7 +3130,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>288</v>
       </c>
@@ -2899,7 +3148,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>289</v>
       </c>
@@ -2917,7 +3166,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>290</v>
       </c>
@@ -2935,7 +3184,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>291</v>
       </c>
@@ -2953,7 +3202,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>292</v>
       </c>
@@ -2971,7 +3220,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>293</v>
       </c>
@@ -2989,7 +3238,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>294</v>
       </c>
@@ -3007,7 +3256,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>295</v>
       </c>
@@ -3025,7 +3274,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>296</v>
       </c>
@@ -3043,7 +3292,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>297</v>
       </c>
@@ -3061,7 +3310,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>298</v>
       </c>
@@ -3079,7 +3328,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>299</v>
       </c>
@@ -3097,7 +3346,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>300</v>
       </c>
@@ -3115,7 +3364,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>301</v>
       </c>
@@ -3133,7 +3382,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>302</v>
       </c>
@@ -3151,7 +3400,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>303</v>
       </c>
@@ -3169,7 +3418,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>386</v>
       </c>
@@ -3187,7 +3436,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>304</v>
       </c>
@@ -3205,7 +3454,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>305</v>
       </c>
@@ -3223,7 +3472,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>306</v>
       </c>
@@ -3241,7 +3490,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>307</v>
       </c>
@@ -3259,7 +3508,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>308</v>
       </c>
@@ -3277,7 +3526,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>309</v>
       </c>
@@ -3295,7 +3544,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>310</v>
       </c>
@@ -3313,7 +3562,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>311</v>
       </c>
@@ -3331,7 +3580,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>312</v>
       </c>
@@ -3349,7 +3598,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>313</v>
       </c>
@@ -3367,7 +3616,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>314</v>
       </c>
@@ -3385,7 +3634,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>315</v>
       </c>
@@ -3403,7 +3652,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>316</v>
       </c>
@@ -3421,7 +3670,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>317</v>
       </c>
@@ -3439,7 +3688,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>318</v>
       </c>
@@ -3457,7 +3706,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>319</v>
       </c>
@@ -3475,7 +3724,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>320</v>
       </c>
@@ -3493,7 +3742,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>321</v>
       </c>
@@ -3511,7 +3760,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>322</v>
       </c>
@@ -3529,7 +3778,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>323</v>
       </c>
@@ -3547,7 +3796,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>324</v>
       </c>
@@ -3565,7 +3814,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>325</v>
       </c>
@@ -3583,7 +3832,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>326</v>
       </c>
@@ -3601,7 +3850,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>327</v>
       </c>
@@ -3619,7 +3868,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>328</v>
       </c>
@@ -3637,7 +3886,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>329</v>
       </c>
@@ -3655,7 +3904,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>330</v>
       </c>
@@ -3673,7 +3922,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>331</v>
       </c>
@@ -3691,7 +3940,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>332</v>
       </c>
@@ -3709,7 +3958,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>333</v>
       </c>
@@ -3727,7 +3976,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>334</v>
       </c>
@@ -3745,7 +3994,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
         <v>389</v>
       </c>
@@ -3762,7 +4011,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
         <v>390</v>
       </c>
@@ -3779,7 +4028,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
         <v>391</v>
       </c>
@@ -3796,7 +4045,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>392</v>
       </c>
@@ -3813,7 +4062,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>393</v>
       </c>
@@ -3830,7 +4079,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
         <v>394</v>
       </c>
@@ -3847,7 +4096,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>395</v>
       </c>
@@ -3864,7 +4113,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>396</v>
       </c>
@@ -3881,7 +4130,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>397</v>
       </c>
@@ -3898,7 +4147,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>398</v>
       </c>
@@ -3915,7 +4164,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>399</v>
       </c>
@@ -3932,7 +4181,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
         <v>400</v>
       </c>
@@ -3949,7 +4198,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>401</v>
       </c>
@@ -3966,7 +4215,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
         <v>402</v>
       </c>
@@ -3983,7 +4232,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>403</v>
       </c>
@@ -4000,7 +4249,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>404</v>
       </c>
@@ -4017,7 +4266,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="8" t="s">
         <v>405</v>
       </c>
@@ -4034,7 +4283,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="8" t="s">
         <v>406</v>
       </c>
@@ -4051,7 +4300,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="8" t="s">
         <v>407</v>
       </c>
@@ -4068,7 +4317,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="8" t="s">
         <v>408</v>
       </c>
@@ -4085,7 +4334,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="8" t="s">
         <v>409</v>
       </c>
@@ -4102,7 +4351,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="8" t="s">
         <v>410</v>
       </c>
@@ -4119,7 +4368,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="8" t="s">
         <v>411</v>
       </c>
@@ -4136,7 +4385,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="8" t="s">
         <v>412</v>
       </c>
@@ -4153,7 +4402,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="8" t="s">
         <v>413</v>
       </c>
@@ -4170,7 +4419,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="8" t="s">
         <v>414</v>
       </c>
@@ -4187,7 +4436,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="8" t="s">
         <v>415</v>
       </c>
@@ -4204,7 +4453,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="8" t="s">
         <v>416</v>
       </c>
@@ -4221,7 +4470,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" s="8" t="s">
         <v>417</v>
       </c>
@@ -4238,7 +4487,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" s="8" t="s">
         <v>418</v>
       </c>
@@ -4255,7 +4504,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" s="8" t="s">
         <v>419</v>
       </c>
@@ -4272,7 +4521,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
         <v>420</v>
       </c>
@@ -4289,7 +4538,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="8" t="s">
         <v>421</v>
       </c>
@@ -4306,7 +4555,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" s="8" t="s">
         <v>422</v>
       </c>
@@ -4323,7 +4572,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="8" t="s">
         <v>423</v>
       </c>
@@ -4340,7 +4589,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="8" t="s">
         <v>424</v>
       </c>
@@ -4357,7 +4606,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
         <v>425</v>
       </c>
@@ -4374,7 +4623,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
         <v>426</v>
       </c>
@@ -4391,7 +4640,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="8" t="s">
         <v>427</v>
       </c>
@@ -4408,7 +4657,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" s="8" t="s">
         <v>428</v>
       </c>
@@ -4425,7 +4674,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
         <v>429</v>
       </c>
@@ -4442,7 +4691,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" s="8" t="s">
         <v>430</v>
       </c>
@@ -4459,7 +4708,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" s="8" t="s">
         <v>431</v>
       </c>
@@ -4476,7 +4725,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" s="8" t="s">
         <v>432</v>
       </c>
@@ -4493,7 +4742,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="8" t="s">
         <v>433</v>
       </c>
@@ -4510,7 +4759,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="8" t="s">
         <v>434</v>
       </c>
@@ -4527,7 +4776,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" s="8" t="s">
         <v>435</v>
       </c>
@@ -4544,7 +4793,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" s="8" t="s">
         <v>436</v>
       </c>
@@ -4561,7 +4810,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="8" t="s">
         <v>437</v>
       </c>
@@ -4578,7 +4827,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" s="8" t="s">
         <v>438</v>
       </c>
@@ -4595,7 +4844,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" s="8" t="s">
         <v>439</v>
       </c>
@@ -4612,7 +4861,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" s="8" t="s">
         <v>440</v>
       </c>
@@ -4629,7 +4878,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" s="8" t="s">
         <v>441</v>
       </c>
@@ -4646,7 +4895,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B122" s="8" t="s">
         <v>442</v>
       </c>
@@ -4663,7 +4912,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B123" s="8" t="s">
         <v>443</v>
       </c>
@@ -4680,7 +4929,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" s="8" t="s">
         <v>444</v>
       </c>
@@ -4697,7 +4946,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" s="8" t="s">
         <v>445</v>
       </c>
@@ -4714,7 +4963,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" s="8" t="s">
         <v>446</v>
       </c>
@@ -4731,7 +4980,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" s="8" t="s">
         <v>447</v>
       </c>
@@ -4748,7 +4997,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" s="8" t="s">
         <v>448</v>
       </c>
@@ -4765,7 +5014,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="8" t="s">
         <v>449</v>
       </c>
@@ -4782,7 +5031,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="8" t="s">
         <v>450</v>
       </c>
@@ -4799,7 +5048,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="8" t="s">
         <v>451</v>
       </c>
@@ -4816,7 +5065,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="8" t="s">
         <v>452</v>
       </c>
@@ -4833,7 +5082,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" s="8" t="s">
         <v>453</v>
       </c>
@@ -4850,7 +5099,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" s="8" t="s">
         <v>454</v>
       </c>
@@ -4867,7 +5116,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" s="8" t="s">
         <v>455</v>
       </c>
@@ -4884,7 +5133,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" s="8" t="s">
         <v>456</v>
       </c>
@@ -4901,7 +5150,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" s="8" t="s">
         <v>457</v>
       </c>
@@ -4918,7 +5167,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" s="8" t="s">
         <v>458</v>
       </c>
@@ -4935,7 +5184,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" s="8" t="s">
         <v>459</v>
       </c>
@@ -4952,7 +5201,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" s="8" t="s">
         <v>460</v>
       </c>
@@ -4969,7 +5218,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" s="8" t="s">
         <v>461</v>
       </c>
@@ -4986,7 +5235,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" s="8" t="s">
         <v>462</v>
       </c>
@@ -5003,7 +5252,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" s="8" t="s">
         <v>463</v>
       </c>
@@ -5020,7 +5269,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
         <v>191</v>
       </c>
@@ -5037,7 +5286,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
         <v>192</v>
       </c>
@@ -5054,7 +5303,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
         <v>193</v>
       </c>
@@ -5071,7 +5320,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
         <v>194</v>
       </c>
@@ -5088,7 +5337,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
         <v>195</v>
       </c>
@@ -5105,7 +5354,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>196</v>
       </c>
@@ -5122,7 +5371,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
         <v>197</v>
       </c>
@@ -5139,7 +5388,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>198</v>
       </c>
@@ -5156,7 +5405,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
         <v>199</v>
       </c>
@@ -5173,7 +5422,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>200</v>
       </c>
@@ -5190,7 +5439,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>201</v>
       </c>
@@ -5207,7 +5456,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
         <v>202</v>
       </c>
@@ -5224,7 +5473,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
         <v>203</v>
       </c>
@@ -5241,7 +5490,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
         <v>204</v>
       </c>
@@ -5258,7 +5507,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
         <v>205</v>
       </c>
@@ -5275,7 +5524,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>206</v>
       </c>
@@ -5292,7 +5541,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
         <v>207</v>
       </c>
@@ -5309,7 +5558,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
         <v>208</v>
       </c>
@@ -5326,7 +5575,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
         <v>209</v>
       </c>
@@ -5343,7 +5592,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
         <v>210</v>
       </c>
@@ -5360,7 +5609,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B165" s="2" t="s">
         <v>211</v>
       </c>
@@ -5377,7 +5626,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
         <v>212</v>
       </c>
@@ -5394,7 +5643,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
         <v>213</v>
       </c>
@@ -5411,7 +5660,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
         <v>214</v>
       </c>
@@ -5428,7 +5677,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B169" s="2" t="s">
         <v>215</v>
       </c>
@@ -5445,7 +5694,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
         <v>216</v>
       </c>
@@ -5462,7 +5711,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B171" s="2" t="s">
         <v>217</v>
       </c>
@@ -5479,7 +5728,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
         <v>218</v>
       </c>
@@ -5496,7 +5745,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
         <v>219</v>
       </c>
@@ -5513,7 +5762,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>220</v>
       </c>
@@ -5530,7 +5779,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B175" s="2" t="s">
         <v>221</v>
       </c>
@@ -5547,7 +5796,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>222</v>
       </c>
@@ -5564,7 +5813,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>223</v>
       </c>
@@ -5581,7 +5830,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>224</v>
       </c>
@@ -5598,7 +5847,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>225</v>
       </c>
@@ -5615,7 +5864,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>226</v>
       </c>
@@ -5632,7 +5881,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
         <v>227</v>
       </c>
@@ -5649,7 +5898,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
         <v>228</v>
       </c>
@@ -5666,7 +5915,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B183" s="2" t="s">
         <v>229</v>
       </c>
@@ -5683,7 +5932,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
         <v>230</v>
       </c>
@@ -5700,7 +5949,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B185" s="2" t="s">
         <v>231</v>
       </c>
@@ -5717,7 +5966,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
         <v>232</v>
       </c>
@@ -5730,11 +5979,11 @@
       <c r="G186" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H186" s="2" t="s">
+      <c r="H186" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="2" t="s">
         <v>549</v>
       </c>
@@ -5748,7 +5997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B189" s="2" t="s">
         <v>550</v>
       </c>
@@ -5762,7 +6011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B190" s="2" t="s">
         <v>551</v>
       </c>
@@ -5776,7 +6025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="2" t="s">
         <v>540</v>
       </c>
@@ -5790,7 +6039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="2" t="s">
         <v>541</v>
       </c>
@@ -5804,7 +6053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="2" t="s">
         <v>542</v>
       </c>
@@ -5818,7 +6067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="2" t="s">
         <v>543</v>
       </c>
@@ -5832,7 +6081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="2" t="s">
         <v>544</v>
       </c>
@@ -5846,7 +6095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="2" t="s">
         <v>545</v>
       </c>
@@ -5860,7 +6109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="2" t="s">
         <v>552</v>
       </c>
@@ -5874,7 +6123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="2" t="s">
         <v>553</v>
       </c>
@@ -5888,7 +6137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="2" t="s">
         <v>554</v>
       </c>
@@ -5902,7 +6151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
         <v>555</v>
       </c>
@@ -5916,7 +6165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="2" t="s">
         <v>556</v>
       </c>
@@ -5930,7 +6179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="2" t="s">
         <v>557</v>
       </c>
@@ -5944,7 +6193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="2" t="s">
         <v>546</v>
       </c>
@@ -5958,7 +6207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="2" t="s">
         <v>547</v>
       </c>
@@ -5972,7 +6221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="2" t="s">
         <v>548</v>
       </c>
@@ -5986,7 +6235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="2" t="s">
         <v>558</v>
       </c>
@@ -6000,7 +6249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="2" t="s">
         <v>559</v>
       </c>
@@ -6014,7 +6263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="2" t="s">
         <v>560</v>
       </c>
@@ -6028,7 +6277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="2" t="s">
         <v>275</v>
       </c>
@@ -6044,7 +6293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="2" t="s">
         <v>276</v>
       </c>
@@ -6060,7 +6309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="2" t="s">
         <v>277</v>
       </c>
@@ -6076,7 +6325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="2" t="s">
         <v>278</v>
       </c>
@@ -6092,7 +6341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="2" t="s">
         <v>279</v>
       </c>
@@ -6108,7 +6357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
         <v>280</v>
       </c>
@@ -6124,7 +6373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
         <v>281</v>
       </c>
@@ -6140,7 +6389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="2" t="s">
         <v>282</v>
       </c>
@@ -6156,7 +6405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="2" t="s">
         <v>283</v>
       </c>
@@ -6172,7 +6421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="2" t="s">
         <v>284</v>
       </c>
@@ -6188,14 +6437,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="2" t="s">
         <v>117</v>
       </c>
@@ -6210,7 +6459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
         <v>118</v>
       </c>
@@ -6226,7 +6475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="2" t="s">
         <v>119</v>
       </c>
@@ -6240,7 +6489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
         <v>120</v>
       </c>
@@ -6254,7 +6503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="2" t="s">
         <v>121</v>
       </c>
@@ -6268,7 +6517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
         <v>122</v>
       </c>
@@ -6282,7 +6531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
         <v>123</v>
       </c>
@@ -6296,7 +6545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
         <v>124</v>
       </c>
@@ -6310,7 +6559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="2" t="s">
         <v>125</v>
       </c>
@@ -6324,7 +6573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="2" t="s">
         <v>126</v>
       </c>
@@ -6338,7 +6587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
         <v>127</v>
       </c>
@@ -6352,7 +6601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
         <v>128</v>
       </c>
@@ -6366,7 +6615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
         <v>129</v>
       </c>
@@ -6380,7 +6629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="2" t="s">
         <v>130</v>
       </c>
@@ -6394,7 +6643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="2" t="s">
         <v>131</v>
       </c>
@@ -6408,7 +6657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="2" t="s">
         <v>132</v>
       </c>
@@ -6422,7 +6671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="2" t="s">
         <v>133</v>
       </c>
@@ -6436,7 +6685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="2" t="s">
         <v>134</v>
       </c>
@@ -6450,7 +6699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="2" t="s">
         <v>135</v>
       </c>
@@ -6464,7 +6713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="2" t="s">
         <v>136</v>
       </c>
@@ -6478,7 +6727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="2" t="s">
         <v>137</v>
       </c>
@@ -6492,7 +6741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="2" t="s">
         <v>138</v>
       </c>
@@ -6506,7 +6755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
         <v>139</v>
       </c>
@@ -6520,7 +6769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="2" t="s">
         <v>140</v>
       </c>
@@ -6534,7 +6783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="2" t="s">
         <v>141</v>
       </c>
@@ -6548,7 +6797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="2" t="s">
         <v>142</v>
       </c>
@@ -6562,7 +6811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" s="2" t="s">
         <v>143</v>
       </c>
@@ -6576,7 +6825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="2" t="s">
         <v>144</v>
       </c>
@@ -6590,7 +6839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" s="2" t="s">
         <v>145</v>
       </c>
@@ -6604,7 +6853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="2" t="s">
         <v>146</v>
       </c>
@@ -6618,7 +6867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="2" t="s">
         <v>147</v>
       </c>
@@ -6632,7 +6881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="2" t="s">
         <v>148</v>
       </c>
@@ -6646,7 +6895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="2" t="s">
         <v>149</v>
       </c>
@@ -6660,7 +6909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="2" t="s">
         <v>150</v>
       </c>
@@ -6674,7 +6923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="2" t="s">
         <v>151</v>
       </c>
@@ -6688,7 +6937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="2" t="s">
         <v>152</v>
       </c>
@@ -6702,7 +6951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="2" t="s">
         <v>153</v>
       </c>
@@ -6716,7 +6965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" s="2" t="s">
         <v>29</v>
       </c>
@@ -6730,7 +6979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" s="2" t="s">
         <v>31</v>
       </c>
@@ -6744,7 +6993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="2" t="s">
         <v>33</v>
       </c>
@@ -6758,7 +7007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B262" s="2" t="s">
         <v>35</v>
       </c>
@@ -6772,7 +7021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="2" t="s">
         <v>37</v>
       </c>
@@ -6786,7 +7035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
         <v>39</v>
       </c>
@@ -6800,7 +7049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B265" s="2" t="s">
         <v>41</v>
       </c>
@@ -6814,7 +7063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="2" t="s">
         <v>43</v>
       </c>
@@ -6828,7 +7077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B267" s="2" t="s">
         <v>45</v>
       </c>
@@ -6842,7 +7091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B268" s="2" t="s">
         <v>47</v>
       </c>
@@ -6856,7 +7105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B269" s="2" t="s">
         <v>49</v>
       </c>
@@ -6870,7 +7119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B270" s="2" t="s">
         <v>51</v>
       </c>
@@ -6884,7 +7133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
         <v>53</v>
       </c>
@@ -6898,7 +7147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B272" s="2" t="s">
         <v>55</v>
       </c>
@@ -6912,7 +7161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B273" s="2" t="s">
         <v>57</v>
       </c>
@@ -6926,7 +7175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="2" t="s">
         <v>59</v>
       </c>
@@ -6940,7 +7189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B275" s="2" t="s">
         <v>61</v>
       </c>
@@ -6954,7 +7203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="2" t="s">
         <v>63</v>
       </c>
@@ -6968,7 +7217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B277" s="2" t="s">
         <v>65</v>
       </c>
@@ -6982,7 +7231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="2" t="s">
         <v>67</v>
       </c>
@@ -6996,7 +7245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B279" s="2" t="s">
         <v>69</v>
       </c>
@@ -7010,7 +7259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="2" t="s">
         <v>71</v>
       </c>
@@ -7024,7 +7273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B281" s="2" t="s">
         <v>73</v>
       </c>
@@ -7038,7 +7287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="2" t="s">
         <v>75</v>
       </c>
@@ -7052,7 +7301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B283" s="2" t="s">
         <v>77</v>
       </c>
@@ -7066,7 +7315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="2" t="s">
         <v>79</v>
       </c>
@@ -7080,7 +7329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="2" t="s">
         <v>81</v>
       </c>
@@ -7094,7 +7343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="2" t="s">
         <v>83</v>
       </c>
@@ -7108,7 +7357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="2" t="s">
         <v>85</v>
       </c>
@@ -7122,7 +7371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="2" t="s">
         <v>87</v>
       </c>
@@ -7136,7 +7385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B289" s="2" t="s">
         <v>89</v>
       </c>
@@ -7150,7 +7399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="2" t="s">
         <v>91</v>
       </c>
@@ -7164,7 +7413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B291" s="2" t="s">
         <v>93</v>
       </c>
@@ -7178,7 +7427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B292" s="2" t="s">
         <v>95</v>
       </c>
@@ -7192,7 +7441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B293" s="2" t="s">
         <v>97</v>
       </c>
@@ -7206,7 +7455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="2" t="s">
         <v>99</v>
       </c>
@@ -7220,7 +7469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B295" s="2" t="s">
         <v>101</v>
       </c>
@@ -7234,7 +7483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B296" s="2" t="s">
         <v>103</v>
       </c>
@@ -7248,7 +7497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B297" s="2" t="s">
         <v>105</v>
       </c>
@@ -7262,7 +7511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="2" t="s">
         <v>107</v>
       </c>
@@ -7276,7 +7525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B299" s="2" t="s">
         <v>109</v>
       </c>
@@ -7290,7 +7539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B300" s="2" t="s">
         <v>111</v>
       </c>
@@ -7304,7 +7553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B301" s="2" t="s">
         <v>113</v>
       </c>
@@ -7318,7 +7567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="2" t="s">
         <v>115</v>
       </c>
@@ -7331,6 +7580,762 @@
       <c r="G302" s="2" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B304" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I304" s="6"/>
+    </row>
+    <row r="305" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B305" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I305" s="6"/>
+    </row>
+    <row r="306" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B306" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I306" s="6"/>
+    </row>
+    <row r="307" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B307" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I307" s="6"/>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B308" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I308" s="6"/>
+    </row>
+    <row r="309" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B309" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I309" s="6"/>
+    </row>
+    <row r="310" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B310" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I310" s="6"/>
+    </row>
+    <row r="311" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B311" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H311" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="I311" s="6"/>
+    </row>
+    <row r="312" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B312" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I312" s="6"/>
+    </row>
+    <row r="313" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B313" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I313" s="6"/>
+    </row>
+    <row r="314" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B314" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I314" s="6"/>
+    </row>
+    <row r="315" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B315" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H315" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I315" s="6"/>
+    </row>
+    <row r="316" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B316" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I316" s="6"/>
+    </row>
+    <row r="317" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B317" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H317" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I317" s="6"/>
+    </row>
+    <row r="318" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B318" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H318" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I318" s="6"/>
+    </row>
+    <row r="319" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B319" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I319" s="6"/>
+    </row>
+    <row r="320" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B320" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I320" s="6"/>
+    </row>
+    <row r="321" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B321" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H321" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I321" s="6"/>
+    </row>
+    <row r="322" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B322" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H322" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="I322" s="6"/>
+    </row>
+    <row r="323" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B323" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I323" s="6"/>
+    </row>
+    <row r="324" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B324" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I324" s="6"/>
+    </row>
+    <row r="325" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B325" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I325" s="6"/>
+    </row>
+    <row r="326" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B326" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H326" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I326" s="6"/>
+    </row>
+    <row r="327" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B327" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H327" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I327" s="6"/>
+    </row>
+    <row r="328" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B328" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I328" s="6"/>
+    </row>
+    <row r="329" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B329" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I329" s="6"/>
+    </row>
+    <row r="330" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B330" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I330" s="6"/>
+    </row>
+    <row r="331" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B331" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I331" s="6"/>
+    </row>
+    <row r="332" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B332" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H332" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="I332" s="6"/>
+    </row>
+    <row r="333" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B333" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I333" s="6"/>
+    </row>
+    <row r="334" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B334" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I334" s="6"/>
+    </row>
+    <row r="335" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B335" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I335" s="6"/>
+    </row>
+    <row r="336" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B336" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I336" s="6"/>
+    </row>
+    <row r="337" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B337" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I337" s="6"/>
+    </row>
+    <row r="338" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B338" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I338" s="6"/>
+    </row>
+    <row r="339" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B339" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I339" s="6"/>
+    </row>
+    <row r="340" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B340" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I340" s="6"/>
+    </row>
+    <row r="341" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B341" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I341" s="6"/>
+    </row>
+    <row r="342" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B342" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I342" s="6"/>
+    </row>
+    <row r="343" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B343" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I343" s="6"/>
+    </row>
+    <row r="344" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B344" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H344" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="I344" s="6"/>
+    </row>
+    <row r="345" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B345" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I345" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B304:B344">

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/MonsterCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E515F88D-39F9-4C26-B022-0D18EF867269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3888F00C-8C76-4E8A-8807-181833F3791D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="1283">
   <si>
     <t>##var</t>
   </si>
@@ -2125,6 +2125,1816 @@
   </si>
   <si>
     <t>EffectCreate_BossEffect;EffectCreate_MonsterShow;BuffAdd_WaveHpUp;BuffAdd_WaveSpeedUp</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Rou1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Rou2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Rou3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_XueRen1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_XueRen2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_XueRen3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_WuGui1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_WuGui2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_WuGui3</t>
+  </si>
+  <si>
+    <t>Monster_Rou1</t>
+  </si>
+  <si>
+    <t>Monster_Rou2</t>
+  </si>
+  <si>
+    <t>Monster_Rou3</t>
+  </si>
+  <si>
+    <t>Monster_XueRen1</t>
+  </si>
+  <si>
+    <t>Monster_XueRen2</t>
+  </si>
+  <si>
+    <t>Monster_XueRen3</t>
+  </si>
+  <si>
+    <t>Monster_WuGui1</t>
+  </si>
+  <si>
+    <t>Monster_WuGui2</t>
+  </si>
+  <si>
+    <t>Monster_WuGui3</t>
+  </si>
+  <si>
+    <t>展示怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge1_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge1_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge1_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge1_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge1_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge1_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge1_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_4_4</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge2_5_4</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge3_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge3_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge3_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge3_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge3_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge3_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge3_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge3_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge4_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_3_4</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_6_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_6_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_6_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_6_4</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_7_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_7_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_7_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_7_4</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_8_1</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_8_2</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_8_3</t>
+  </si>
+  <si>
+    <t>Monster_Season1_Challenge5_8_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge1_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge1_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge1_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge1_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge1_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge1_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge1_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_4_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge2_5_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge3_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge3_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge3_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge3_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge3_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge3_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge3_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge3_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge4_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_3_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_6_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_6_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_6_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_6_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_7_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_7_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_7_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_7_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_8_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_8_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_8_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season1_Challenge5_8_4</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge1_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge1_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge1_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge1_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge1_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge1_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge1_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge1_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge1_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge1_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge1_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge1_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge1_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge1_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_4_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_4_4</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge2_5_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge2_5_4</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge3_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge3_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge3_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge3_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge3_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge3_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge3_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge3_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge3_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge3_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge3_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge3_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge3_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge3_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge3_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge3_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge4_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge4_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_3_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_3_4</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_6_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_6_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_6_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_6_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_6_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_6_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_6_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_6_4</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_7_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_7_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_7_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_7_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_7_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_7_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_7_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_7_4</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_8_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_8_1</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_8_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_8_2</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_8_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_8_3</t>
+  </si>
+  <si>
+    <t>Monster_Season2_Challenge5_8_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season2_Challenge5_8_4</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge1_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge1_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge1_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge1_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge1_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge1_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge1_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge1_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge1_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge1_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge1_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge1_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge1_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge1_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_4_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_4_4</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge2_5_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge2_5_4</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge3_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge3_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge3_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge3_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge3_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge3_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge3_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge3_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge3_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge3_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge3_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge3_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge3_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge3_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge3_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge3_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge4_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge4_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_3_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_3_4</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_6_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_6_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_6_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_6_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_6_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_6_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_6_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_6_4</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_7_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_7_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_7_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_7_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_7_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_7_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_7_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_7_4</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_8_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_8_1</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_8_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_8_2</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_8_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_8_3</t>
+  </si>
+  <si>
+    <t>Monster_Season3_Challenge5_8_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season3_Challenge5_8_4</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge1_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge1_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge1_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge1_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge1_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge1_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge1_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge1_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge1_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge1_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge1_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge1_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge1_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge1_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_4_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_4_4</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge2_5_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge2_5_4</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge3_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge3_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge3_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge3_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge3_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge3_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge3_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge3_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge3_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge3_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge3_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge3_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge3_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge3_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge3_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge3_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge4_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge4_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_1_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_1_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_2_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_2_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_3_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_3_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_3_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_3_4</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_4_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_4_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_5_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_5_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_5_4</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_6_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_6_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_6_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_6_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_6_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_6_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_6_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_6_4</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_7_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_7_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_7_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_7_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_7_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_7_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_7_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_7_4</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_8_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_8_1</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_8_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_8_2</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_8_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_8_3</t>
+  </si>
+  <si>
+    <t>Monster_Season4_Challenge5_8_4</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Season4_Challenge5_8_4</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +4294,37 @@
     <cellStyle name="链接单元格 2" xfId="5" xr:uid="{29443E05-B478-4B5D-9984-A25D6E815190}"/>
     <cellStyle name="输出" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2766,19 +4606,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X345"/>
+  <dimension ref="A1:X650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C563" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N332" sqref="N332"/>
+      <selection pane="bottomRight" activeCell="A578" sqref="A578:XFD651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
@@ -5367,8 +7207,8 @@
       <c r="G150" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H150" s="2" t="s">
-        <v>583</v>
+      <c r="H150" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
@@ -5520,8 +7360,8 @@
       <c r="G159" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H159" s="2" t="s">
-        <v>583</v>
+      <c r="H159" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
@@ -5673,8 +7513,8 @@
       <c r="G168" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H168" s="2" t="s">
-        <v>583</v>
+      <c r="H168" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.2">
@@ -5792,8 +7632,8 @@
       <c r="G175" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H175" s="2" t="s">
-        <v>583</v>
+      <c r="H175" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.2">
@@ -5979,8 +7819,8 @@
       <c r="G186" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H186" s="6" t="s">
-        <v>583</v>
+      <c r="H186" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
@@ -5990,6 +7830,9 @@
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E188" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F188" s="2" t="s">
         <v>561</v>
       </c>
@@ -6004,6 +7847,9 @@
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E189" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F189" s="2" t="s">
         <v>562</v>
       </c>
@@ -6018,6 +7864,9 @@
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E190" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F190" s="2" t="s">
         <v>563</v>
       </c>
@@ -6032,6 +7881,9 @@
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E191" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F191" s="2" t="s">
         <v>564</v>
       </c>
@@ -6046,6 +7898,9 @@
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E192" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F192" s="2" t="s">
         <v>565</v>
       </c>
@@ -6060,6 +7915,9 @@
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E193" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F193" s="2" t="s">
         <v>566</v>
       </c>
@@ -6074,6 +7932,9 @@
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E194" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F194" s="2" t="s">
         <v>567</v>
       </c>
@@ -6088,6 +7949,9 @@
       <c r="C195" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E195" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F195" s="2" t="s">
         <v>568</v>
       </c>
@@ -6102,6 +7966,9 @@
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E196" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F196" s="2" t="s">
         <v>569</v>
       </c>
@@ -6116,6 +7983,9 @@
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E197" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F197" s="2" t="s">
         <v>570</v>
       </c>
@@ -6130,6 +8000,9 @@
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E198" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F198" s="2" t="s">
         <v>571</v>
       </c>
@@ -6144,6 +8017,9 @@
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E199" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F199" s="2" t="s">
         <v>572</v>
       </c>
@@ -6158,6 +8034,9 @@
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E200" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F200" s="2" t="s">
         <v>573</v>
       </c>
@@ -6172,6 +8051,9 @@
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E201" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F201" s="2" t="s">
         <v>574</v>
       </c>
@@ -6186,6 +8068,9 @@
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E202" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F202" s="2" t="s">
         <v>575</v>
       </c>
@@ -6200,6 +8085,9 @@
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E203" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F203" s="2" t="s">
         <v>576</v>
       </c>
@@ -6214,6 +8102,9 @@
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E204" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F204" s="2" t="s">
         <v>577</v>
       </c>
@@ -6228,6 +8119,9 @@
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E205" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F205" s="2" t="s">
         <v>578</v>
       </c>
@@ -6242,6 +8136,9 @@
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E206" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F206" s="2" t="s">
         <v>579</v>
       </c>
@@ -6256,6 +8153,9 @@
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E207" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F207" s="2" t="s">
         <v>580</v>
       </c>
@@ -6270,6 +8170,9 @@
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E208" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="F208" s="2" t="s">
         <v>581</v>
       </c>
@@ -6277,311 +8180,336 @@
         <v>13</v>
       </c>
     </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B209" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D210" s="7"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G210" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="2" t="s">
-        <v>276</v>
+        <v>691</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D211" s="7"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G211" s="6" t="s">
+      <c r="E211" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="2" t="s">
-        <v>277</v>
+        <v>692</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D212" s="7"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G212" s="6" t="s">
+      <c r="E212" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="2" t="s">
-        <v>278</v>
+        <v>693</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D213" s="7"/>
-      <c r="E213" s="6"/>
-      <c r="F213" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" s="6" t="s">
+      <c r="E213" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="2" t="s">
-        <v>279</v>
+        <v>694</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="7"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" s="6" t="s">
+      <c r="E214" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
-        <v>280</v>
+        <v>695</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D215" s="7"/>
-      <c r="E215" s="6"/>
-      <c r="F215" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G215" s="6" t="s">
+      <c r="E215" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
-        <v>281</v>
+        <v>696</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D216" s="7"/>
-      <c r="E216" s="6"/>
-      <c r="F216" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" s="6" t="s">
+      <c r="E216" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="2" t="s">
-        <v>282</v>
+        <v>697</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D217" s="7"/>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B218" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" s="7"/>
-      <c r="E218" s="6"/>
-      <c r="F218" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G218" s="6" t="s">
+      <c r="E217" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>25</v>
+        <v>275</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
+      <c r="B220" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D220" s="7"/>
       <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
-      <c r="G220" s="6"/>
+      <c r="F220" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="7"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G221" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D222" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="7"/>
       <c r="E222" s="6"/>
-      <c r="F222" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G222" s="2" t="s">
+      <c r="F222" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="2" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F223" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G223" s="2" t="s">
+      <c r="D223" s="7"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G223" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G224" s="2" t="s">
+      <c r="D224" s="7"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G224" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="2" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F225" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G225" s="2" t="s">
+      <c r="D225" s="7"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G225" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F226" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G226" s="2" t="s">
+      <c r="D226" s="7"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G226" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G227" s="2" t="s">
+      <c r="D227" s="7"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G227" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F228" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G228" s="2" t="s">
+      <c r="D228" s="7"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G228" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B229" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>163</v>
+        <v>117</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>13</v>
@@ -6589,13 +8517,15 @@
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
       <c r="F231" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>13</v>
@@ -6603,13 +8533,13 @@
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>13</v>
@@ -6617,13 +8547,13 @@
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>13</v>
@@ -6631,13 +8561,13 @@
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>13</v>
@@ -6645,13 +8575,13 @@
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>13</v>
@@ -6659,13 +8589,13 @@
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>13</v>
@@ -6673,13 +8603,13 @@
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>13</v>
@@ -6687,13 +8617,13 @@
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>13</v>
@@ -6701,13 +8631,13 @@
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>13</v>
@@ -6715,13 +8645,13 @@
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>13</v>
@@ -6729,13 +8659,13 @@
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>13</v>
@@ -6743,13 +8673,13 @@
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>13</v>
@@ -6757,13 +8687,13 @@
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>13</v>
@@ -6771,13 +8701,13 @@
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>13</v>
@@ -6785,13 +8715,13 @@
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>13</v>
@@ -6799,13 +8729,13 @@
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>13</v>
@@ -6813,13 +8743,13 @@
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>13</v>
@@ -6827,13 +8757,13 @@
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>13</v>
@@ -6841,13 +8771,13 @@
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>13</v>
@@ -6855,13 +8785,13 @@
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>13</v>
@@ -6869,13 +8799,13 @@
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>13</v>
@@ -6883,13 +8813,13 @@
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>13</v>
@@ -6897,13 +8827,13 @@
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>13</v>
@@ -6911,13 +8841,13 @@
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>13</v>
@@ -6925,13 +8855,13 @@
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>13</v>
@@ -6939,13 +8869,13 @@
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>13</v>
@@ -6953,27 +8883,41 @@
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G257" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B258" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" s="2" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>13</v>
@@ -6981,13 +8925,13 @@
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" s="2" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>13</v>
@@ -6995,13 +8939,13 @@
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>13</v>
@@ -7009,13 +8953,13 @@
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B262" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>13</v>
@@ -7023,13 +8967,13 @@
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="2" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>13</v>
@@ -7037,13 +8981,13 @@
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>13</v>
@@ -7051,13 +8995,13 @@
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B265" s="2" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>13</v>
@@ -7065,41 +9009,27 @@
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="2" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B267" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G267" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B268" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>13</v>
@@ -7107,13 +9037,13 @@
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B269" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>13</v>
@@ -7121,13 +9051,13 @@
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B270" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>13</v>
@@ -7135,13 +9065,13 @@
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>13</v>
@@ -7149,13 +9079,13 @@
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B272" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>13</v>
@@ -7163,13 +9093,13 @@
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B273" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>13</v>
@@ -7177,13 +9107,13 @@
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>13</v>
@@ -7191,13 +9121,13 @@
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B275" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>13</v>
@@ -7205,13 +9135,13 @@
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>13</v>
@@ -7219,13 +9149,13 @@
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B277" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>13</v>
@@ -7233,13 +9163,13 @@
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>13</v>
@@ -7247,13 +9177,13 @@
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B279" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>13</v>
@@ -7261,13 +9191,13 @@
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>13</v>
@@ -7275,13 +9205,13 @@
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B281" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>13</v>
@@ -7289,13 +9219,13 @@
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>13</v>
@@ -7303,13 +9233,13 @@
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B283" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>13</v>
@@ -7317,13 +9247,13 @@
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>13</v>
@@ -7331,13 +9261,13 @@
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>13</v>
@@ -7345,13 +9275,13 @@
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>13</v>
@@ -7359,13 +9289,13 @@
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>13</v>
@@ -7373,385 +9303,349 @@
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B289" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B290" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B291" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B292" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B293" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B294" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B295" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B296" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B297" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F288" s="2" t="s">
+      <c r="C297" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F297" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G288" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B289" s="2" t="s">
+      <c r="G297" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B298" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F289" s="2" t="s">
+      <c r="C298" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F298" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G289" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B290" s="2" t="s">
+      <c r="G298" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B299" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F290" s="2" t="s">
+      <c r="C299" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F299" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G290" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B291" s="2" t="s">
+      <c r="G299" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B300" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F291" s="2" t="s">
+      <c r="C300" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F300" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G291" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B292" s="2" t="s">
+      <c r="G300" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B301" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F292" s="2" t="s">
+      <c r="C301" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F301" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G292" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B293" s="2" t="s">
+      <c r="G301" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B302" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F293" s="2" t="s">
+      <c r="C302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F302" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G293" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B294" s="2" t="s">
+      <c r="G302" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B303" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F294" s="2" t="s">
+      <c r="C303" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F303" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G294" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B295" s="2" t="s">
+      <c r="G303" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B304" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F295" s="2" t="s">
+      <c r="C304" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F304" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G295" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B296" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B297" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B298" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B299" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B300" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B301" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B302" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B304" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="G304" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H304" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I304" s="6"/>
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B305" s="2" t="s">
-        <v>637</v>
+        <v>103</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>595</v>
+        <v>104</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H305" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I305" s="6"/>
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="2" t="s">
-        <v>638</v>
+        <v>105</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>596</v>
+        <v>106</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H306" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I306" s="6"/>
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B307" s="2" t="s">
-        <v>639</v>
+        <v>107</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>597</v>
+        <v>108</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H307" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I307" s="6"/>
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B308" s="2" t="s">
-        <v>640</v>
+        <v>109</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>598</v>
+        <v>110</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H308" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I308" s="6"/>
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B309" s="2" t="s">
-        <v>641</v>
+        <v>111</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>599</v>
+        <v>112</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H309" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I309" s="6"/>
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="2" t="s">
-        <v>642</v>
+        <v>113</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>600</v>
+        <v>114</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H310" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I310" s="6"/>
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B311" s="2" t="s">
-        <v>643</v>
+        <v>115</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>601</v>
+        <v>116</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H311" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="I311" s="6"/>
-    </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B312" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H312" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I312" s="6"/>
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B313" s="2" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>13</v>
@@ -7763,13 +9657,13 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="2" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>13</v>
@@ -7781,13 +9675,13 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B315" s="2" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>13</v>
@@ -7799,13 +9693,13 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B316" s="2" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>13</v>
@@ -7817,13 +9711,13 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B317" s="2" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>13</v>
@@ -7835,13 +9729,13 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="2" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>13</v>
@@ -7853,13 +9747,13 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B319" s="2" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>13</v>
@@ -7871,31 +9765,31 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B320" s="2" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H320" s="2" t="s">
-        <v>678</v>
+      <c r="H320" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="I320" s="6"/>
     </row>
     <row r="321" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B321" s="2" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>13</v>
@@ -7907,31 +9801,31 @@
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B322" s="2" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H322" s="11" t="s">
-        <v>679</v>
+      <c r="H322" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="I322" s="6"/>
     </row>
     <row r="323" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B323" s="2" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>13</v>
@@ -7943,13 +9837,13 @@
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B324" s="2" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>13</v>
@@ -7961,13 +9855,13 @@
     </row>
     <row r="325" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B325" s="2" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>13</v>
@@ -7979,13 +9873,13 @@
     </row>
     <row r="326" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B326" s="2" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>13</v>
@@ -7997,13 +9891,13 @@
     </row>
     <row r="327" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B327" s="2" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>13</v>
@@ -8015,13 +9909,13 @@
     </row>
     <row r="328" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B328" s="2" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>13</v>
@@ -8033,13 +9927,13 @@
     </row>
     <row r="329" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B329" s="2" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>13</v>
@@ -8051,13 +9945,13 @@
     </row>
     <row r="330" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B330" s="2" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>13</v>
@@ -8069,49 +9963,49 @@
     </row>
     <row r="331" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B331" s="2" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H331" s="2" t="s">
-        <v>678</v>
+      <c r="H331" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="I331" s="6"/>
     </row>
     <row r="332" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B332" s="2" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H332" s="11" t="s">
-        <v>679</v>
+      <c r="H332" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="I332" s="6"/>
     </row>
     <row r="333" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B333" s="2" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>13</v>
@@ -8123,13 +10017,13 @@
     </row>
     <row r="334" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B334" s="2" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>13</v>
@@ -8141,13 +10035,13 @@
     </row>
     <row r="335" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B335" s="2" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>13</v>
@@ -8159,13 +10053,13 @@
     </row>
     <row r="336" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B336" s="2" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>13</v>
@@ -8177,13 +10071,13 @@
     </row>
     <row r="337" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B337" s="2" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>13</v>
@@ -8195,13 +10089,13 @@
     </row>
     <row r="338" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B338" s="2" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>13</v>
@@ -8213,13 +10107,13 @@
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B339" s="2" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="G339" s="2" t="s">
         <v>13</v>
@@ -8231,13 +10125,13 @@
     </row>
     <row r="340" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B340" s="2" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>13</v>
@@ -8249,31 +10143,31 @@
     </row>
     <row r="341" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B341" s="2" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H341" s="2" t="s">
-        <v>678</v>
+      <c r="H341" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="I341" s="6"/>
     </row>
     <row r="342" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B342" s="2" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>13</v>
@@ -8285,13 +10179,13 @@
     </row>
     <row r="343" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B343" s="2" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>13</v>
@@ -8303,31 +10197,31 @@
     </row>
     <row r="344" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B344" s="2" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G344" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H344" s="11" t="s">
-        <v>679</v>
+      <c r="H344" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="I344" s="6"/>
     </row>
     <row r="345" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B345" s="2" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G345" s="2" t="s">
         <v>13</v>
@@ -8337,13 +10231,5148 @@
       </c>
       <c r="I345" s="6"/>
     </row>
+    <row r="346" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B346" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I346" s="6"/>
+    </row>
+    <row r="347" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B347" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I347" s="6"/>
+    </row>
+    <row r="348" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B348" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I348" s="6"/>
+    </row>
+    <row r="349" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B349" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I349" s="6"/>
+    </row>
+    <row r="350" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B350" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I350" s="6"/>
+    </row>
+    <row r="351" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B351" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I351" s="6"/>
+    </row>
+    <row r="352" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B352" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I352" s="6"/>
+    </row>
+    <row r="353" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B353" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H353" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="I353" s="6"/>
+    </row>
+    <row r="354" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B354" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I354" s="6"/>
+    </row>
+    <row r="356" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B356" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="357" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B357" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="358" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B358" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="359" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B359" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="360" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B360" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="361" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B361" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="362" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B362" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="363" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B363" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="364" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B364" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="365" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B365" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="366" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B366" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="367" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B367" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="368" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B368" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="369" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B369" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="370" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B370" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="371" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B371" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="372" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B372" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="373" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B373" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="374" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B374" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H374" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="375" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B375" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H375" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="376" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B376" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H376" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="377" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B377" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H377" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="378" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B378" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H378" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="379" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B379" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="380" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B380" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H380" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="381" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B381" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H381" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="382" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B382" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H382" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="383" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B383" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H383" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="384" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B384" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H384" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="385" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B385" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H385" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="386" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B386" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H386" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="387" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B387" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="388" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B388" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H388" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="389" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B389" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H389" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="390" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B390" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H390" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="391" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B391" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="392" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B392" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="393" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B393" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="394" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B394" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="395" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B395" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="396" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B396" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="397" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B397" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="398" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B398" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="399" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B399" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B400" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="401" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B401" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="402" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B402" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H402" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="403" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B403" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="404" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B404" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="405" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B405" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="406" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B406" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="407" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B407" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="408" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B408" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="409" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B409" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="410" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B410" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="411" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B411" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="412" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B412" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H412" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="413" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B413" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="414" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B414" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="415" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B415" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="416" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B416" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="417" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B417" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="418" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B418" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="419" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B419" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="420" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B420" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="421" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B421" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="422" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B422" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="423" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B423" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="424" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B424" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="425" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B425" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="426" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B426" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="427" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B427" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="428" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B428" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="430" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B430" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="431" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B431" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="432" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B432" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="433" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B433" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="434" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B434" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="435" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B435" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="436" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B436" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="437" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B437" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="438" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B438" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="439" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B439" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="440" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B440" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H440" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="441" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B441" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H441" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="442" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B442" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="443" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B443" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="444" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B444" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H444" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="445" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B445" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="446" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B446" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="447" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B447" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="448" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B448" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="449" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B449" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="450" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B450" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="451" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B451" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H451" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="452" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B452" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="453" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B453" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="454" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B454" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="455" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B455" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="456" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B456" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="457" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B457" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H457" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="458" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B458" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H458" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="459" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B459" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="460" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B460" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H460" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="461" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B461" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="462" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B462" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H462" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="463" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B463" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="464" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B464" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="465" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B465" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="466" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B466" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H466" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="467" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B467" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="468" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B468" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H468" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="469" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B469" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="470" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B470" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H470" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="471" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B471" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="472" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B472" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="473" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B473" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="474" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B474" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H474" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="475" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B475" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="G475" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H475" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="476" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B476" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G476" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H476" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="477" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B477" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G477" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H477" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="478" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B478" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="G478" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H478" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="479" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B479" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="G479" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H479" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="480" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B480" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="G480" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H480" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="481" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B481" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H481" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="482" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B482" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G482" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H482" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="483" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B483" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G483" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="484" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B484" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="G484" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H484" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="485" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B485" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H485" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="486" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B486" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="G486" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H486" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="487" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B487" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="G487" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H487" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="488" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B488" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G488" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H488" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="489" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B489" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="490" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B490" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H490" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="491" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B491" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H491" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="492" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B492" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H492" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="493" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B493" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="G493" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H493" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="494" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B494" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="G494" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H494" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="495" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B495" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="G495" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H495" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="496" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B496" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="G496" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H496" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="497" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B497" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H497" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="498" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B498" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="G498" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H498" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="499" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B499" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H499" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="500" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B500" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="G500" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H500" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="501" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B501" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H501" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="502" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B502" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="G502" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H502" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="504" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B504" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="G504" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H504" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="505" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B505" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="G505" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H505" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="506" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B506" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H506" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="507" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B507" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="G507" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H507" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="508" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B508" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G508" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H508" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="509" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B509" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G509" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H509" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="510" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B510" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G510" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H510" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="511" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B511" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G511" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H511" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="512" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B512" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G512" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H512" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="513" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B513" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G513" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H513" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="514" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B514" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H514" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="515" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B515" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H515" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="516" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B516" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G516" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H516" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="517" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B517" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H517" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="518" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B518" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G518" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H518" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="519" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B519" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H519" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="520" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B520" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G520" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H520" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="521" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B521" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G521" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H521" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="522" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B522" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G522" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H522" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="523" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B523" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G523" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H523" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="524" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B524" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H524" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="525" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B525" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H525" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="526" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B526" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H526" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="527" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B527" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H527" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="528" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B528" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G528" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H528" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="529" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B529" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G529" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H529" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="530" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B530" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G530" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H530" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="531" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B531" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G531" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H531" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="532" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B532" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H532" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="533" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B533" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G533" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H533" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="534" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B534" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H534" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="535" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B535" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H535" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="536" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B536" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H536" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="537" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B537" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H537" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="538" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B538" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H538" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="539" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B539" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H539" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="540" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B540" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H540" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="541" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B541" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H541" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="542" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B542" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H542" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="543" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B543" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H543" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="544" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B544" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H544" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="545" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B545" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H545" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="546" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B546" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H546" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="547" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B547" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H547" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="548" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B548" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H548" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="549" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B549" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H549" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="550" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B550" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H550" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="551" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B551" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H551" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="552" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B552" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H552" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="553" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B553" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H553" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="554" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B554" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H554" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="555" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B555" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H555" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="556" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B556" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H556" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="557" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B557" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H557" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="558" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B558" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H558" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="559" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B559" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H559" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="560" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B560" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H560" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="561" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B561" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H561" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="562" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B562" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H562" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B563" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H563" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="564" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B564" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B565" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H565" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="566" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B566" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H566" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="567" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B567" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H567" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="568" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B568" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H568" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B569" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H569" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B570" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G570" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H570" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="571" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B571" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H571" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="572" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B572" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G572" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H572" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="573" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B573" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G573" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H573" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="574" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B574" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G574" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H574" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="575" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B575" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G575" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H575" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B576" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G576" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H576" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B578" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G578" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H578" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B579" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G579" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H579" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B580" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G580" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H580" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B581" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G581" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H581" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B582" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G582" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H582" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B583" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G583" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H583" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B584" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G584" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H584" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B585" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G585" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H585" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B586" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="587" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B587" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G587" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H587" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="588" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B588" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G588" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H588" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="589" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B589" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G589" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H589" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="590" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B590" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H590" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="591" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B591" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G591" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H591" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="592" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B592" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G592" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H592" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="593" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B593" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G593" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H593" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="594" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B594" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G594" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H594" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="595" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B595" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G595" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H595" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="596" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B596" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H596" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="597" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B597" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G597" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H597" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="598" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B598" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H598" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="599" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B599" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G599" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H599" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="600" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B600" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="601" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B601" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G601" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H601" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="602" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B602" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H602" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="603" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B603" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H603" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="604" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B604" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H604" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="605" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B605" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G605" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H605" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="606" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B606" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G606" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H606" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="607" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B607" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H607" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="608" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B608" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G608" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H608" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="609" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B609" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G609" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H609" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="610" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B610" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G610" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H610" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="611" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B611" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G611" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H611" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="612" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B612" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H612" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="613" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B613" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G613" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H613" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="614" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B614" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H614" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="615" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B615" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G615" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H615" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="616" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B616" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G616" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H616" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="617" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B617" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G617" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H617" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="618" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B618" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G618" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H618" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="619" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B619" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G619" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H619" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="620" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B620" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G620" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H620" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="621" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B621" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G621" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H621" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="622" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B622" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G622" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H622" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="623" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B623" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G623" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H623" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="624" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B624" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G624" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H624" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="625" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B625" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G625" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H625" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="626" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B626" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G626" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H626" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="627" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B627" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G627" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H627" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="628" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B628" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G628" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H628" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="629" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B629" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G629" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H629" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="630" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B630" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G630" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H630" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="631" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B631" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G631" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H631" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="632" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B632" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G632" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H632" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="633" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B633" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G633" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H633" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="634" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B634" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G634" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H634" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="635" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B635" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G635" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H635" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="636" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B636" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G636" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H636" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="637" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B637" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G637" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H637" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="638" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B638" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G638" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H638" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="639" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B639" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G639" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H639" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="640" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B640" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G640" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H640" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="641" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B641" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G641" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H641" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="642" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B642" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G642" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H642" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="643" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B643" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H643" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="644" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B644" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G644" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H644" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="645" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B645" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G645" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H645" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="646" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B646" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G646" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H646" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="647" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B647" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H647" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="648" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B648" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H648" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="649" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B649" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G649" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H649" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="650" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B650" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G650" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H650" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B304:B344">
-    <sortCondition ref="B304:B344"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B313:B353">
+    <sortCondition ref="B313:B353"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H145:H186">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B209:B217">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D209:D217">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F209:F217">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H145:H149 H151:H158 H160:H167 H169:H174 H176:H185">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
